--- a/Procesamiento de base manual/count_history_index.xlsx
+++ b/Procesamiento de base manual/count_history_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,10 +569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="40">
       <c r="A40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="47">
       <c r="A47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="D287" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
@@ -4467,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -4492,83 +4492,83 @@
         <v>1</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>2</v>
       </c>
       <c r="D290" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -4593,21 +4593,21 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D298" t="n">
         <v>10</v>
@@ -4615,55 +4615,55 @@
     </row>
     <row r="299">
       <c r="A299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
@@ -4671,44 +4671,44 @@
     </row>
     <row r="303">
       <c r="A303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
@@ -4719,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D306" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307">
@@ -4733,24 +4733,24 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
@@ -4761,24 +4761,24 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D309" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
         <v>2</v>
       </c>
       <c r="D310" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -4820,91 +4820,91 @@
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D315" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D317" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
       </c>
       <c r="D319" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -4915,77 +4915,77 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D320" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D325" t="n">
         <v>4</v>
@@ -4993,16 +4993,16 @@
     </row>
     <row r="326">
       <c r="A326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="D327" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -5027,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D329" t="n">
         <v>2</v>
@@ -5049,44 +5049,44 @@
     </row>
     <row r="330">
       <c r="A330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333">
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -5111,10 +5111,10 @@
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D334" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335">
@@ -5128,35 +5128,35 @@
         <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338">
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339">
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340">
@@ -5195,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341">
@@ -5209,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342">
@@ -5223,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D342" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -5237,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D343" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344">
@@ -5251,38 +5251,38 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D344" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D345" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="D347" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
@@ -5321,38 +5321,38 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D350" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
       </c>
       <c r="D351" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -5363,24 +5363,24 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D353" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354">
@@ -5391,24 +5391,24 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D354" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356">
@@ -5422,21 +5422,21 @@
         <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D357" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
@@ -5461,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="D360" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>2</v>
@@ -5497,16 +5497,16 @@
     </row>
     <row r="362">
       <c r="A362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -5517,38 +5517,38 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D363" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D364" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D366" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367">
@@ -5576,32 +5576,32 @@
         <v>2</v>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369" t="n">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -5643,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D372" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373">
@@ -5657,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374">
@@ -5671,38 +5671,38 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D374" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D375" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
       </c>
       <c r="D376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -5710,27 +5710,27 @@
         <v>1</v>
       </c>
       <c r="B377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D378" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379">
@@ -5738,13 +5738,13 @@
         <v>1</v>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380">
@@ -5755,38 +5755,38 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C382" t="n">
         <v>2</v>
       </c>
       <c r="D382" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383">
@@ -5800,21 +5800,21 @@
         <v>0</v>
       </c>
       <c r="D383" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -5825,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386">
@@ -5839,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387">
@@ -5856,35 +5856,35 @@
         <v>0</v>
       </c>
       <c r="D387" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D389" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -5895,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D390" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391">
@@ -5909,24 +5909,24 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D391" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
         <v>2</v>
       </c>
       <c r="D392" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393">
@@ -5937,38 +5937,38 @@
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
       </c>
       <c r="D394" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
         <v>2</v>
       </c>
       <c r="D395" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396">
@@ -5976,27 +5976,27 @@
         <v>1</v>
       </c>
       <c r="B396" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C396" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D396" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D397" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398">
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="D398" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -6018,10 +6018,10 @@
         <v>1</v>
       </c>
       <c r="B399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D399" t="n">
         <v>4</v>
@@ -6029,30 +6029,30 @@
     </row>
     <row r="400">
       <c r="A400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D401" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402">
@@ -6063,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D402" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -6091,35 +6091,35 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D404" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B405" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D406" t="n">
         <v>2</v>
@@ -6127,16 +6127,16 @@
     </row>
     <row r="407">
       <c r="A407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -6144,13 +6144,13 @@
         <v>1</v>
       </c>
       <c r="B408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D408" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409">
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="n">
         <v>1</v>
@@ -6172,38 +6172,38 @@
         <v>1</v>
       </c>
       <c r="B410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D412" t="n">
         <v>3</v>
@@ -6211,58 +6211,58 @@
     </row>
     <row r="413">
       <c r="A413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B413" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D413" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
         <v>4</v>
       </c>
       <c r="D414" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D416" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417">
@@ -6273,52 +6273,52 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D417" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B418" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D418" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D419" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
       </c>
       <c r="D420" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422">
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="D422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -6357,21 +6357,21 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D424" t="n">
         <v>4</v>
@@ -6379,58 +6379,58 @@
     </row>
     <row r="425">
       <c r="A425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D425" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B426" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D426" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D427" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D428" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429">
@@ -6441,94 +6441,94 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D429" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D430" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D431" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D433" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D434" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D435" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -6536,13 +6536,13 @@
         <v>1</v>
       </c>
       <c r="B436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D436" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437">
@@ -6553,23 +6553,1745 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D437" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D438" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="b">
+        <v>0</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="b">
+        <v>0</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="b">
+        <v>1</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2</v>
+      </c>
+      <c r="D441" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="b">
+        <v>0</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="b">
+        <v>0</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="b">
+        <v>0</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1</v>
+      </c>
+      <c r="D444" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="b">
+        <v>0</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="b">
+        <v>0</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0</v>
+      </c>
+      <c r="D446" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="b">
+        <v>0</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="b">
+        <v>0</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2</v>
+      </c>
+      <c r="D448" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="b">
+        <v>0</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="b">
+        <v>0</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+      <c r="D450" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="b">
+        <v>0</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>4</v>
+      </c>
+      <c r="D451" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="b">
+        <v>0</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1</v>
+      </c>
+      <c r="D452" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="b">
+        <v>0</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
+      <c r="D453" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="b">
+        <v>0</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+      <c r="D454" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="b">
+        <v>0</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>3</v>
+      </c>
+      <c r="D455" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="b">
+        <v>0</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2</v>
+      </c>
+      <c r="D456" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="b">
+        <v>0</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="b">
+        <v>0</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="b">
+        <v>0</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2</v>
+      </c>
+      <c r="D459" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="b">
+        <v>0</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="b">
+        <v>0</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1</v>
+      </c>
+      <c r="D461" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="b">
+        <v>0</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>1</v>
+      </c>
+      <c r="D462" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="b">
+        <v>0</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>3</v>
+      </c>
+      <c r="D463" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="b">
+        <v>0</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="b">
+        <v>0</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>3</v>
+      </c>
+      <c r="D465" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="b">
+        <v>0</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>5</v>
+      </c>
+      <c r="D466" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="b">
+        <v>0</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="b">
+        <v>0</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0</v>
+      </c>
+      <c r="D468" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="b">
+        <v>0</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1</v>
+      </c>
+      <c r="D469" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="b">
+        <v>0</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+      <c r="D470" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="b">
+        <v>0</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="b">
+        <v>0</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="b">
+        <v>1</v>
+      </c>
+      <c r="B473" t="n">
+        <v>2</v>
+      </c>
+      <c r="C473" t="n">
+        <v>4</v>
+      </c>
+      <c r="D473" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="b">
+        <v>0</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1</v>
+      </c>
+      <c r="D474" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="b">
+        <v>0</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>3</v>
+      </c>
+      <c r="D475" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="b">
+        <v>0</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>4</v>
+      </c>
+      <c r="D476" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="b">
+        <v>1</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+      <c r="C477" t="n">
+        <v>3</v>
+      </c>
+      <c r="D477" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="b">
+        <v>1</v>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2</v>
+      </c>
+      <c r="D478" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="b">
+        <v>1</v>
+      </c>
+      <c r="B479" t="n">
+        <v>2</v>
+      </c>
+      <c r="C479" t="n">
+        <v>2</v>
+      </c>
+      <c r="D479" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="b">
+        <v>0</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1</v>
+      </c>
+      <c r="D480" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="b">
+        <v>0</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2</v>
+      </c>
+      <c r="D481" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="b">
+        <v>0</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="b">
+        <v>0</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2</v>
+      </c>
+      <c r="D483" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="b">
+        <v>0</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="b">
+        <v>0</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="b">
+        <v>0</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+      <c r="D486" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="b">
+        <v>0</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="b">
+        <v>0</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="b">
+        <v>1</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3</v>
+      </c>
+      <c r="C489" t="n">
+        <v>7</v>
+      </c>
+      <c r="D489" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="b">
+        <v>1</v>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+      <c r="C490" t="n">
+        <v>2</v>
+      </c>
+      <c r="D490" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="b">
+        <v>1</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+      <c r="C491" t="n">
+        <v>3</v>
+      </c>
+      <c r="D491" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="b">
+        <v>1</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="C492" t="n">
+        <v>3</v>
+      </c>
+      <c r="D492" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="b">
+        <v>1</v>
+      </c>
+      <c r="B493" t="n">
+        <v>3</v>
+      </c>
+      <c r="C493" t="n">
+        <v>6</v>
+      </c>
+      <c r="D493" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="b">
+        <v>1</v>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+      <c r="C494" t="n">
+        <v>2</v>
+      </c>
+      <c r="D494" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="b">
+        <v>0</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="b">
+        <v>0</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="b">
+        <v>0</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="b">
+        <v>1</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" t="n">
+        <v>4</v>
+      </c>
+      <c r="D498" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="b">
+        <v>0</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>2</v>
+      </c>
+      <c r="D499" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="b">
+        <v>0</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="b">
+        <v>0</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>6</v>
+      </c>
+      <c r="D501" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="b">
+        <v>0</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="b">
+        <v>1</v>
+      </c>
+      <c r="B503" t="n">
+        <v>2</v>
+      </c>
+      <c r="C503" t="n">
+        <v>2</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="b">
+        <v>0</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="b">
+        <v>0</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>3</v>
+      </c>
+      <c r="D505" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="b">
+        <v>0</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="b">
+        <v>0</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0</v>
+      </c>
+      <c r="D507" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="b">
+        <v>1</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="b">
+        <v>0</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="b">
+        <v>0</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>3</v>
+      </c>
+      <c r="D510" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="b">
+        <v>0</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>2</v>
+      </c>
+      <c r="D511" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="b">
+        <v>0</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+      <c r="D512" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="b">
+        <v>1</v>
+      </c>
+      <c r="B513" t="n">
+        <v>4</v>
+      </c>
+      <c r="C513" t="n">
+        <v>5</v>
+      </c>
+      <c r="D513" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="b">
+        <v>0</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0</v>
+      </c>
+      <c r="D514" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="b">
+        <v>0</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>3</v>
+      </c>
+      <c r="D515" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="b">
+        <v>1</v>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+      <c r="C516" t="n">
+        <v>4</v>
+      </c>
+      <c r="D516" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="b">
+        <v>1</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="n">
+        <v>2</v>
+      </c>
+      <c r="D517" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="b">
+        <v>0</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+      <c r="D518" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="b">
+        <v>0</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0</v>
+      </c>
+      <c r="D519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="b">
+        <v>0</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+      <c r="D520" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="b">
+        <v>1</v>
+      </c>
+      <c r="B521" t="n">
+        <v>3</v>
+      </c>
+      <c r="C521" t="n">
+        <v>4</v>
+      </c>
+      <c r="D521" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="b">
+        <v>0</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>6</v>
+      </c>
+      <c r="D522" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="b">
+        <v>1</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="b">
+        <v>0</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2</v>
+      </c>
+      <c r="D524" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="b">
+        <v>1</v>
+      </c>
+      <c r="B525" t="n">
+        <v>2</v>
+      </c>
+      <c r="C525" t="n">
+        <v>3</v>
+      </c>
+      <c r="D525" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="b">
+        <v>0</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="b">
+        <v>1</v>
+      </c>
+      <c r="B527" t="n">
+        <v>2</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2</v>
+      </c>
+      <c r="D527" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="b">
+        <v>0</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0</v>
+      </c>
+      <c r="D528" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="b">
+        <v>1</v>
+      </c>
+      <c r="B529" t="n">
+        <v>2</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2</v>
+      </c>
+      <c r="D529" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="b">
+        <v>1</v>
+      </c>
+      <c r="B530" t="n">
+        <v>4</v>
+      </c>
+      <c r="C530" t="n">
+        <v>7</v>
+      </c>
+      <c r="D530" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="b">
+        <v>1</v>
+      </c>
+      <c r="B531" t="n">
+        <v>2</v>
+      </c>
+      <c r="C531" t="n">
+        <v>4</v>
+      </c>
+      <c r="D531" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="b">
+        <v>1</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+      <c r="C532" t="n">
+        <v>2</v>
+      </c>
+      <c r="D532" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="b">
+        <v>1</v>
+      </c>
+      <c r="B533" t="n">
+        <v>2</v>
+      </c>
+      <c r="C533" t="n">
+        <v>2</v>
+      </c>
+      <c r="D533" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="b">
+        <v>0</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>2</v>
+      </c>
+      <c r="D534" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="b">
+        <v>0</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>4</v>
+      </c>
+      <c r="D535" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="b">
+        <v>0</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>10</v>
+      </c>
+      <c r="D536" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="b">
+        <v>0</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="b">
+        <v>0</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0</v>
+      </c>
+      <c r="D538" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="b">
+        <v>0</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0</v>
+      </c>
+      <c r="D539" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="b">
+        <v>0</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0</v>
+      </c>
+      <c r="C540" t="n">
+        <v>2</v>
+      </c>
+      <c r="D540" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="b">
+        <v>1</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D541" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="b">
+        <v>0</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0</v>
+      </c>
+      <c r="D542" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="b">
+        <v>1</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3</v>
+      </c>
+      <c r="C543" t="n">
+        <v>11</v>
+      </c>
+      <c r="D543" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="b">
+        <v>0</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D544" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="b">
+        <v>1</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+      <c r="C545" t="n">
+        <v>2</v>
+      </c>
+      <c r="D545" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="b">
+        <v>0</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D546" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="b">
+        <v>0</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3</v>
+      </c>
+      <c r="D547" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="b">
+        <v>1</v>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+      <c r="C548" t="n">
+        <v>5</v>
+      </c>
+      <c r="D548" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="b">
+        <v>0</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0</v>
+      </c>
+      <c r="C549" t="n">
+        <v>4</v>
+      </c>
+      <c r="D549" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="b">
+        <v>0</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0</v>
+      </c>
+      <c r="C550" t="n">
+        <v>4</v>
+      </c>
+      <c r="D550" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="b">
+        <v>1</v>
+      </c>
+      <c r="B551" t="n">
+        <v>2</v>
+      </c>
+      <c r="C551" t="n">
+        <v>3</v>
+      </c>
+      <c r="D551" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="b">
+        <v>1</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="C552" t="n">
+        <v>3</v>
+      </c>
+      <c r="D552" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="b">
+        <v>1</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+      <c r="C553" t="n">
+        <v>5</v>
+      </c>
+      <c r="D553" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="b">
+        <v>0</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0</v>
+      </c>
+      <c r="C554" t="n">
+        <v>5</v>
+      </c>
+      <c r="D554" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="b">
+        <v>0</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D555" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="b">
+        <v>1</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D556" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="b">
+        <v>0</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D557" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="b">
+        <v>1</v>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="C558" t="n">
+        <v>3</v>
+      </c>
+      <c r="D558" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="b">
+        <v>1</v>
+      </c>
+      <c r="B559" t="n">
+        <v>2</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3</v>
+      </c>
+      <c r="D559" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="b">
+        <v>0</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0</v>
+      </c>
+      <c r="D560" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="b">
+        <v>0</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0</v>
+      </c>
+      <c r="C561" t="n">
+        <v>2</v>
+      </c>
+      <c r="D561" t="n">
         <v>5</v>
       </c>
     </row>
